--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_28_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54930.94805422023</v>
+        <v>10829566.93532664</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54930.94805422023</v>
+        <v>10829566.93532664</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>101256.8804825113</v>
+        <v>10758998.52688784</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>101256.8804825113</v>
+        <v>10758998.52688784</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418656291.741478</v>
+        <v>50341352.32421191</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15040.0311779076</v>
+        <v>1310735.883942771</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28359.94831409856</v>
+        <v>2315877.85420623</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41484.66820446301</v>
+        <v>3321019.824469689</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54277.00122177783</v>
+        <v>4325020.196000989</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67069.33423909264</v>
+        <v>5329020.567532286</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>79861.66725640743</v>
+        <v>6333020.939063584</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>92060.11269794113</v>
+        <v>7504000.360057131</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>104062.8225944494</v>
+        <v>8636028.407590603</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>116996.5259305517</v>
+        <v>9318040.836133927</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>130459.6795591543</v>
+        <v>10105413.8728848</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>143922.8210096341</v>
+        <v>10892786.90963567</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>157385.9746382367</v>
+        <v>11680159.94638654</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>170849.1282668393</v>
+        <v>12467532.98313741</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>185078.6211748096</v>
+        <v>13103417.39768799</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>199376.7434470069</v>
+        <v>13673057.32839589</v>
       </c>
     </row>
   </sheetData>
